--- a/temp/pages/StructureDefinition-ch-etoc-questionnaire.xlsx
+++ b/temp/pages/StructureDefinition-ch-etoc-questionnaire.xlsx
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>44</v>
@@ -3156,7 +3156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>95</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>52</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>45</v>
@@ -3249,10 +3249,10 @@
         <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>45</v>
@@ -8070,7 +8070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>321</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
@@ -12381,7 +12381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>384</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>52</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>45</v>
@@ -12500,7 +12500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>390</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>52</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>45</v>

--- a/temp/pages/StructureDefinition-ch-etoc-questionnaire.xlsx
+++ b/temp/pages/StructureDefinition-ch-etoc-questionnaire.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="524">
   <si>
     <t>Path</t>
   </si>
@@ -1257,9 +1257,6 @@
   </si>
   <si>
     <t>Allows linking of groups of questions to formal terminologies.</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-orf/ValueSet/minimaldataset</t>
   </si>
   <si>
     <t>Questionnaire.item.prefix</t>
@@ -12381,7 +12378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
         <v>384</v>
       </c>
@@ -12397,7 +12394,7 @@
         <v>52</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>45</v>
@@ -12500,7 +12497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
         <v>390</v>
       </c>
@@ -12516,7 +12513,7 @@
         <v>52</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>45</v>
@@ -12562,13 +12559,13 @@
         <v>45</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>318</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>45</v>
@@ -12621,11 +12618,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12647,16 +12644,16 @@
         <v>119</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>45</v>
@@ -12705,7 +12702,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -12720,13 +12717,13 @@
         <v>45</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>45</v>
@@ -12740,7 +12737,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12766,13 +12763,13 @@
         <v>119</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12822,7 +12819,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -12837,7 +12834,7 @@
         <v>45</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>45</v>
@@ -12857,7 +12854,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12883,16 +12880,16 @@
         <v>71</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -12920,49 +12917,49 @@
         <v>209</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y95" t="s" s="2">
+      <c r="Z95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
+      <c r="AK95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>45</v>
@@ -12976,7 +12973,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13002,16 +12999,16 @@
         <v>322</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -13060,7 +13057,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13072,7 +13069,7 @@
         <v>45</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>45</v>
@@ -13081,7 +13078,7 @@
         <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>45</v>
@@ -13095,7 +13092,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13210,7 +13207,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13327,7 +13324,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13446,7 +13443,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13472,13 +13469,13 @@
         <v>119</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13528,7 +13525,7 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>52</v>
@@ -13549,7 +13546,7 @@
         <v>45</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>45</v>
@@ -13563,7 +13560,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13589,10 +13586,10 @@
         <v>71</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13622,11 +13619,11 @@
         <v>209</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>45</v>
       </c>
@@ -13643,7 +13640,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>52</v>
@@ -13664,7 +13661,7 @@
         <v>45</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>45</v>
@@ -13678,7 +13675,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13701,13 +13698,13 @@
         <v>45</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13737,38 +13734,38 @@
         <v>317</v>
       </c>
       <c r="X102" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y102" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y102" t="s" s="2">
+      <c r="Z102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH102" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Z102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="AI102" t="s" s="2">
         <v>45</v>
       </c>
@@ -13779,7 +13776,7 @@
         <v>45</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>45</v>
@@ -13793,7 +13790,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13819,13 +13816,13 @@
         <v>71</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13854,38 +13851,38 @@
         <v>209</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH103" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AI103" t="s" s="2">
         <v>45</v>
       </c>
@@ -13896,7 +13893,7 @@
         <v>45</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>45</v>
@@ -13910,7 +13907,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13936,86 +13933,86 @@
         <v>217</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P104" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Q104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH104" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Q104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH104" t="s" s="2">
+      <c r="AI104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AI104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AK104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>45</v>
@@ -14029,7 +14026,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14055,88 +14052,88 @@
         <v>217</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P105" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="O105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P105" t="s" s="2">
+      <c r="Q105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Q105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AK105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>45</v>
@@ -14150,7 +14147,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14176,16 +14173,16 @@
         <v>217</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
@@ -14234,7 +14231,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14243,19 +14240,19 @@
         <v>52</v>
       </c>
       <c r="AH106" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AI106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AK106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>45</v>
@@ -14269,7 +14266,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14292,16 +14289,16 @@
         <v>45</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="K107" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="L107" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14351,7 +14348,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14360,19 +14357,19 @@
         <v>52</v>
       </c>
       <c r="AH107" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AI107" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="AK107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>45</v>
@@ -14386,7 +14383,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14409,16 +14406,16 @@
         <v>45</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K108" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K108" t="s" s="2">
+      <c r="L108" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14468,7 +14465,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14477,19 +14474,19 @@
         <v>52</v>
       </c>
       <c r="AH108" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AI108" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="AK108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>45</v>
@@ -14503,7 +14500,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14529,13 +14526,13 @@
         <v>322</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14585,7 +14582,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14594,10 +14591,10 @@
         <v>44</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>45</v>
@@ -14606,7 +14603,7 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>45</v>
@@ -14620,7 +14617,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14735,7 +14732,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14852,7 +14849,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14971,7 +14968,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14994,16 +14991,16 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15032,11 +15029,11 @@
         <v>317</v>
       </c>
       <c r="X113" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y113" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y113" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
       </c>
@@ -15053,7 +15050,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>52</v>
@@ -15074,7 +15071,7 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>45</v>
@@ -15088,7 +15085,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15114,20 +15111,20 @@
         <v>217</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P114" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q114" t="s" s="2">
         <v>45</v>
@@ -15172,7 +15169,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15193,7 +15190,7 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>45</v>
@@ -15207,7 +15204,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15233,16 +15230,16 @@
         <v>322</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>45</v>
@@ -15291,7 +15288,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -15300,10 +15297,10 @@
         <v>44</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>45</v>
@@ -15312,7 +15309,7 @@
         <v>45</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>45</v>
@@ -15326,7 +15323,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15441,7 +15438,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15558,7 +15555,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15677,7 +15674,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15700,16 +15697,16 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K119" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K119" t="s" s="2">
+      <c r="L119" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15738,11 +15735,11 @@
         <v>317</v>
       </c>
       <c r="X119" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y119" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y119" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="Z119" t="s" s="2">
         <v>45</v>
       </c>
@@ -15759,7 +15756,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>52</v>
@@ -15774,13 +15771,13 @@
         <v>45</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>45</v>
@@ -15794,7 +15791,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15820,16 +15817,16 @@
         <v>45</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -15878,7 +15875,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -15887,19 +15884,19 @@
         <v>44</v>
       </c>
       <c r="AH120" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AI120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
+      <c r="AK120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>45</v>
